--- a/dailySchedule.xlsx
+++ b/dailySchedule.xlsx
@@ -4,14 +4,618 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="GL Balance Check" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Batch Job For 1st Day" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="NPL HAVE NORMAL ACR OR NON NPL " state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="TRX BACKDATE IN LAST 7 DAYS" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="CLOSE ACC HAVE BALANCE TRX_BAL" state="visible" r:id="rId7"/>
+    <sheet sheetId="5" name="GL Balance Check" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="218">
+  <si>
+    <t>BRANCH_NO</t>
+  </si>
+  <si>
+    <t>EXEC_CONTRACT</t>
+  </si>
+  <si>
+    <t>REMARK</t>
+  </si>
+  <si>
+    <t>0888</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>1401</t>
+  </si>
+  <si>
+    <t>1402</t>
+  </si>
+  <si>
+    <t>1403</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>3101</t>
+  </si>
+  <si>
+    <t>4102</t>
+  </si>
+  <si>
+    <t>6101</t>
+  </si>
+  <si>
+    <t>REF_NO</t>
+  </si>
+  <si>
+    <t>BAL_AMT</t>
+  </si>
+  <si>
+    <t>DBT_APTC_YN</t>
+  </si>
+  <si>
+    <t>'NPLHAVENORMALACCRUAL'</t>
+  </si>
+  <si>
+    <t>110522184784731</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>NON-NPL HAVE NPL ACCRUAL</t>
+  </si>
+  <si>
+    <t>110800561355331</t>
+  </si>
+  <si>
+    <t>110800597034731</t>
+  </si>
+  <si>
+    <t>110800597034831</t>
+  </si>
+  <si>
+    <t>110800597034931</t>
+  </si>
+  <si>
+    <t>110800597035031</t>
+  </si>
+  <si>
+    <t>110800597035131</t>
+  </si>
+  <si>
+    <t>410222100028631</t>
+  </si>
+  <si>
+    <t>110800597035631</t>
+  </si>
+  <si>
+    <t>110800597035731</t>
+  </si>
+  <si>
+    <t>110800597035831</t>
+  </si>
+  <si>
+    <t>110800597035931</t>
+  </si>
+  <si>
+    <t>110800597036131</t>
+  </si>
+  <si>
+    <t>110800597036231</t>
+  </si>
+  <si>
+    <t>110800597036331</t>
+  </si>
+  <si>
+    <t>110800597040631</t>
+  </si>
+  <si>
+    <t>110800597040731</t>
+  </si>
+  <si>
+    <t>110800597040831</t>
+  </si>
+  <si>
+    <t>110800597040931</t>
+  </si>
+  <si>
+    <t>110800597041031</t>
+  </si>
+  <si>
+    <t>110800597041131</t>
+  </si>
+  <si>
+    <t>110800597041231</t>
+  </si>
+  <si>
+    <t>110800597041331</t>
+  </si>
+  <si>
+    <t>110800597041431</t>
+  </si>
+  <si>
+    <t>110800597041531</t>
+  </si>
+  <si>
+    <t>110800597041631</t>
+  </si>
+  <si>
+    <t>110800597041731</t>
+  </si>
+  <si>
+    <t>110800597041831</t>
+  </si>
+  <si>
+    <t>110800597041931</t>
+  </si>
+  <si>
+    <t>110800597042031</t>
+  </si>
+  <si>
+    <t>110800597042331</t>
+  </si>
+  <si>
+    <t>110800597042531</t>
+  </si>
+  <si>
+    <t>110800597042631</t>
+  </si>
+  <si>
+    <t>110800039451031</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>110522119311331</t>
+  </si>
+  <si>
+    <t>110800597042231</t>
+  </si>
+  <si>
+    <t>110800597036431</t>
+  </si>
+  <si>
+    <t>110800597036531</t>
+  </si>
+  <si>
+    <t>110800597037431</t>
+  </si>
+  <si>
+    <t>110800597037531</t>
+  </si>
+  <si>
+    <t>110800597037631</t>
+  </si>
+  <si>
+    <t>110800597037731</t>
+  </si>
+  <si>
+    <t>110800597037831</t>
+  </si>
+  <si>
+    <t>110800597037931</t>
+  </si>
+  <si>
+    <t>110800597038031</t>
+  </si>
+  <si>
+    <t>110800597038431</t>
+  </si>
+  <si>
+    <t>110800597038531</t>
+  </si>
+  <si>
+    <t>110800597038631</t>
+  </si>
+  <si>
+    <t>110800597038731</t>
+  </si>
+  <si>
+    <t>110800597038831</t>
+  </si>
+  <si>
+    <t>110800597038931</t>
+  </si>
+  <si>
+    <t>110800597039031</t>
+  </si>
+  <si>
+    <t>110800597039131</t>
+  </si>
+  <si>
+    <t>110800597039231</t>
+  </si>
+  <si>
+    <t>110800597039331</t>
+  </si>
+  <si>
+    <t>110800597039431</t>
+  </si>
+  <si>
+    <t>110800597042731</t>
+  </si>
+  <si>
+    <t>110800597042831</t>
+  </si>
+  <si>
+    <t>110800597042931</t>
+  </si>
+  <si>
+    <t>110800597043031</t>
+  </si>
+  <si>
+    <t>110522275034331</t>
+  </si>
+  <si>
+    <t>110800597042431</t>
+  </si>
+  <si>
+    <t>110800597035431</t>
+  </si>
+  <si>
+    <t>110800597035531</t>
+  </si>
+  <si>
+    <t>110800597036031</t>
+  </si>
+  <si>
+    <t>110800597036631</t>
+  </si>
+  <si>
+    <t>110800597036731</t>
+  </si>
+  <si>
+    <t>110800597036831</t>
+  </si>
+  <si>
+    <t>110800597036931</t>
+  </si>
+  <si>
+    <t>110800597037031</t>
+  </si>
+  <si>
+    <t>110800597037131</t>
+  </si>
+  <si>
+    <t>110800597037231</t>
+  </si>
+  <si>
+    <t>110800597037331</t>
+  </si>
+  <si>
+    <t>110800597038131</t>
+  </si>
+  <si>
+    <t>110800597038231</t>
+  </si>
+  <si>
+    <t>110800597038331</t>
+  </si>
+  <si>
+    <t>110800597042131</t>
+  </si>
+  <si>
+    <t>110800597034531</t>
+  </si>
+  <si>
+    <t>110800597034631</t>
+  </si>
+  <si>
+    <t>110800597035231</t>
+  </si>
+  <si>
+    <t>110800597035331</t>
+  </si>
+  <si>
+    <t>110800597039531</t>
+  </si>
+  <si>
+    <t>110800597039631</t>
+  </si>
+  <si>
+    <t>110800597039731</t>
+  </si>
+  <si>
+    <t>110800597039831</t>
+  </si>
+  <si>
+    <t>110800597039931</t>
+  </si>
+  <si>
+    <t>110800597040031</t>
+  </si>
+  <si>
+    <t>110800597040131</t>
+  </si>
+  <si>
+    <t>110800597040231</t>
+  </si>
+  <si>
+    <t>110800597040331</t>
+  </si>
+  <si>
+    <t>110800597040431</t>
+  </si>
+  <si>
+    <t>110800597040531</t>
+  </si>
+  <si>
+    <t>110800064007331</t>
+  </si>
+  <si>
+    <t>110522202408331</t>
+  </si>
+  <si>
+    <t>110522266342431</t>
+  </si>
+  <si>
+    <t>110800000077931</t>
+  </si>
+  <si>
+    <t>110800000044731</t>
+  </si>
+  <si>
+    <t>110800000137131</t>
+  </si>
+  <si>
+    <t>110522344239931</t>
+  </si>
+  <si>
+    <t>110522344591431</t>
+  </si>
+  <si>
+    <t>110522344242031</t>
+  </si>
+  <si>
+    <t>110522341533431</t>
+  </si>
+  <si>
+    <t>110522344483331</t>
+  </si>
+  <si>
+    <t>110800558915331</t>
+  </si>
+  <si>
+    <t>110800051451931</t>
+  </si>
+  <si>
+    <t>110522287966731</t>
+  </si>
+  <si>
+    <t>HIS_NO</t>
+  </si>
+  <si>
+    <t>TRX_BR</t>
+  </si>
+  <si>
+    <t>MENU</t>
+  </si>
+  <si>
+    <t>TRX_IL</t>
+  </si>
+  <si>
+    <t>AC_IL</t>
+  </si>
+  <si>
+    <t>IB_IL</t>
+  </si>
+  <si>
+    <t>GIS_IL</t>
+  </si>
+  <si>
+    <t>CAN_IL</t>
+  </si>
+  <si>
+    <t>DAL0888222000017</t>
+  </si>
+  <si>
+    <t>CH36</t>
+  </si>
+  <si>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>31-DEC-22</t>
+  </si>
+  <si>
+    <t>30-DEC-22</t>
+  </si>
+  <si>
+    <t>DAL0888222000016</t>
+  </si>
+  <si>
+    <t>110122000020731</t>
+  </si>
+  <si>
+    <t>LN38</t>
+  </si>
+  <si>
+    <t>2022-12-28</t>
+  </si>
+  <si>
+    <t>29-DEC-22</t>
+  </si>
+  <si>
+    <t>28-DEC-22</t>
+  </si>
+  <si>
+    <t>110121800008612</t>
+  </si>
+  <si>
+    <t>DPYD</t>
+  </si>
+  <si>
+    <t>LN28</t>
+  </si>
+  <si>
+    <t>110121800014631</t>
+  </si>
+  <si>
+    <t>LN31</t>
+  </si>
+  <si>
+    <t>DAL1101222000017</t>
+  </si>
+  <si>
+    <t>DAL1101222000016</t>
+  </si>
+  <si>
+    <t>DAL1105222000017</t>
+  </si>
+  <si>
+    <t>DAL1105222000016</t>
+  </si>
+  <si>
+    <t>DAL1106222000017</t>
+  </si>
+  <si>
+    <t>DAL1106222000016</t>
+  </si>
+  <si>
+    <t>DAL1108222000017</t>
+  </si>
+  <si>
+    <t>DAL1108222000016</t>
+  </si>
+  <si>
+    <t>DAL1201222000017</t>
+  </si>
+  <si>
+    <t>DAL1201222000016</t>
+  </si>
+  <si>
+    <t>DAL1202222000017</t>
+  </si>
+  <si>
+    <t>DAL1202222000016</t>
+  </si>
+  <si>
+    <t>DAL1203222000017</t>
+  </si>
+  <si>
+    <t>DAL1203222000016</t>
+  </si>
+  <si>
+    <t>DAL1205222000017</t>
+  </si>
+  <si>
+    <t>DAL1205222000016</t>
+  </si>
+  <si>
+    <t>DAL1401222000017</t>
+  </si>
+  <si>
+    <t>DAL1401222000016</t>
+  </si>
+  <si>
+    <t>DAL1402222000017</t>
+  </si>
+  <si>
+    <t>DAL1402222000016</t>
+  </si>
+  <si>
+    <t>DAL1403222000017</t>
+  </si>
+  <si>
+    <t>DAL1403222000016</t>
+  </si>
+  <si>
+    <t>DAL2101222000017</t>
+  </si>
+  <si>
+    <t>DAL2101222000016</t>
+  </si>
+  <si>
+    <t>DAL2201222000017</t>
+  </si>
+  <si>
+    <t>DAL2201222000016</t>
+  </si>
+  <si>
+    <t>DAL3101222000017</t>
+  </si>
+  <si>
+    <t>DAL3101222000016</t>
+  </si>
+  <si>
+    <t>DAL4102222000017</t>
+  </si>
+  <si>
+    <t>DAL4102222000016</t>
+  </si>
+  <si>
+    <t>DAL6101222000017</t>
+  </si>
+  <si>
+    <t>DAL6101222000016</t>
+  </si>
+  <si>
+    <t>MGNT_BR_NO</t>
+  </si>
+  <si>
+    <t>SUBJ_CD</t>
+  </si>
+  <si>
+    <t>ATIT_CD</t>
+  </si>
+  <si>
+    <t>ENM</t>
+  </si>
+  <si>
+    <t>SUM(B.BAL_AMT)</t>
+  </si>
+  <si>
+    <t>110800417852731</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>28221001</t>
+  </si>
+  <si>
+    <t>Deferred Interest Income on Restructured Loan</t>
+  </si>
+  <si>
+    <t>110800484215831</t>
+  </si>
   <si>
     <t>GBBBBBBBBBB</t>
   </si>
@@ -34,58 +638,7 @@
     <t>BS</t>
   </si>
   <si>
-    <t>1105</t>
-  </si>
-  <si>
-    <t>1402</t>
-  </si>
-  <si>
-    <t>1203</t>
-  </si>
-  <si>
-    <t>1205</t>
-  </si>
-  <si>
     <t>6102</t>
-  </si>
-  <si>
-    <t>1108</t>
-  </si>
-  <si>
-    <t>1201</t>
-  </si>
-  <si>
-    <t>1202</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>1401</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>1403</t>
-  </si>
-  <si>
-    <t>3101</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>4102</t>
-  </si>
-  <si>
-    <t>0888</t>
-  </si>
-  <si>
-    <t>6101</t>
-  </si>
-  <si>
-    <t>1106</t>
   </si>
   <si>
     <t>PL</t>
@@ -493,49 +1046,3013 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>453</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>452</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1382</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>268</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>834</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>331</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>154</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>244</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>173</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>253</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>193</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>167</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>302</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>2050</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D107"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>416500</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>10673.26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>12600</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>12600</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>13860</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>12600</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>28350</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>437833.33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>21200</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>25970</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>12600</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>24570</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>25200</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>18900</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>9450</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>12600</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>5670</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>12600</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>12600</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>12600</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>12600</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23">
+        <v>18900</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>23320</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>28620</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>9450</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>23320</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>11633.33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29">
+        <v>27720</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>5670</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31">
+        <v>13230</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>12600</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33">
+        <v>12600</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34">
+        <v>12600</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35">
+        <v>360633.33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36">
+        <v>505750</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37">
+        <v>12600</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38">
+        <v>13350</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39">
+        <v>6300</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40">
+        <v>12600</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41">
+        <v>12600</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42">
+        <v>12600</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43">
+        <v>18900</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <v>12600</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45">
+        <v>12600</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46">
+        <v>12600</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47">
+        <v>9450</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48">
+        <v>19876.670000000002</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49">
+        <v>18900</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50">
+        <v>5816.67</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51">
+        <v>12600</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52">
+        <v>8143.33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53">
+        <v>12600</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54">
+        <v>31500</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55">
+        <v>12600</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56">
+        <v>6360</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57">
+        <v>12600</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58">
+        <v>12600</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59">
+        <v>40320</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60">
+        <v>25200</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61">
+        <v>6930</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62">
+        <v>1128433.33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63">
+        <v>5300</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64">
+        <v>12600</v>
+      </c>
+      <c r="C64" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65">
+        <v>12600</v>
+      </c>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66">
+        <v>18900</v>
+      </c>
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67">
+        <v>12600</v>
+      </c>
+      <c r="C67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68">
+        <v>12600</v>
+      </c>
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69">
+        <v>9306.67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70">
+        <v>30870</v>
+      </c>
+      <c r="C70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71">
+        <v>31500</v>
+      </c>
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72">
+        <v>18900</v>
+      </c>
+      <c r="C72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73">
+        <v>12600</v>
+      </c>
+      <c r="C73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74">
+        <v>12600</v>
+      </c>
+      <c r="C74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75">
+        <v>12600</v>
+      </c>
+      <c r="C75" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76">
+        <v>6930</v>
+      </c>
+      <c r="C76" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77">
+        <v>28350</v>
+      </c>
+      <c r="C77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78">
+        <v>23320</v>
+      </c>
+      <c r="C78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79">
+        <v>4770</v>
+      </c>
+      <c r="C79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80">
+        <v>8480</v>
+      </c>
+      <c r="C80" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81">
+        <v>16430</v>
+      </c>
+      <c r="C81" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82">
+        <v>6890</v>
+      </c>
+      <c r="C82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83">
+        <v>18900</v>
+      </c>
+      <c r="C83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84">
+        <v>18900</v>
+      </c>
+      <c r="C84" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85">
+        <v>37800</v>
+      </c>
+      <c r="C85" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86">
+        <v>8820</v>
+      </c>
+      <c r="C86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87">
+        <v>12600</v>
+      </c>
+      <c r="C87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88">
+        <v>18900</v>
+      </c>
+      <c r="C88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89">
+        <v>12600</v>
+      </c>
+      <c r="C89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90">
+        <v>12600</v>
+      </c>
+      <c r="C90" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91">
+        <v>12600</v>
+      </c>
+      <c r="C91" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92">
+        <v>12600</v>
+      </c>
+      <c r="C92" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>119</v>
+      </c>
+      <c r="B93">
+        <v>13960</v>
+      </c>
+      <c r="C93" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94">
+        <v>1109820</v>
+      </c>
+      <c r="C94" t="s">
+        <v>61</v>
+      </c>
+      <c r="D94" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>121</v>
+      </c>
+      <c r="B95">
+        <v>865520</v>
+      </c>
+      <c r="C95" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96">
+        <v>616566.66</v>
+      </c>
+      <c r="C96" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97">
+        <v>1140066.67</v>
+      </c>
+      <c r="C97" t="s">
+        <v>61</v>
+      </c>
+      <c r="D97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98">
+        <v>2024200</v>
+      </c>
+      <c r="C98" t="s">
+        <v>61</v>
+      </c>
+      <c r="D98" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99">
+        <v>1140066.67</v>
+      </c>
+      <c r="C99" t="s">
+        <v>61</v>
+      </c>
+      <c r="D99" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100">
+        <v>558400</v>
+      </c>
+      <c r="C100" t="s">
+        <v>61</v>
+      </c>
+      <c r="D100" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101">
+        <v>443520</v>
+      </c>
+      <c r="C101" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102">
+        <v>1762450</v>
+      </c>
+      <c r="C102" t="s">
+        <v>61</v>
+      </c>
+      <c r="D102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>129</v>
+      </c>
+      <c r="B103">
+        <v>639833.33</v>
+      </c>
+      <c r="C103" t="s">
+        <v>61</v>
+      </c>
+      <c r="D103" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104">
+        <v>2280133.33</v>
+      </c>
+      <c r="C104" t="s">
+        <v>61</v>
+      </c>
+      <c r="D104" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105">
+        <v>15410.960000000001</v>
+      </c>
+      <c r="C105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>132</v>
+      </c>
+      <c r="B106">
+        <v>2324340</v>
+      </c>
+      <c r="C106" t="s">
+        <v>61</v>
+      </c>
+      <c r="D106" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107">
+        <v>466083.33</v>
+      </c>
+      <c r="C107" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I44"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5">
+        <v>677</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6">
+        <v>678</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8">
+        <v>679</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9">
+        <v>680</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10">
+        <v>681</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11">
+        <v>682</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>179</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" t="s">
+        <v>145</v>
+      </c>
+      <c r="H36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" t="s">
+        <v>144</v>
+      </c>
+      <c r="G37" t="s">
+        <v>145</v>
+      </c>
+      <c r="H37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>185</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" t="s">
+        <v>145</v>
+      </c>
+      <c r="H43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" t="s">
+        <v>145</v>
+      </c>
+      <c r="H44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2">
+        <v>475.54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3">
+        <v>1250.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F83"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="5" width="10" customWidth="1"/>
+    <col min="2" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44928.70833333333</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <v>44928.70833333333</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2">
-        <v>3720218359697.6</v>
+        <v>3714150922176.18</v>
       </c>
       <c r="E2">
-        <v>3720218359697.6</v>
+        <v>3714150922176.18</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -543,19 +4060,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B3" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>478515902327.01</v>
+        <v>480580318578.77</v>
       </c>
       <c r="E3">
-        <v>478515902327.01</v>
+        <v>480580318578.77</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -563,19 +4080,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B4" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>168642042588.65</v>
+        <v>168695574067.61</v>
       </c>
       <c r="E4">
-        <v>168642042588.65</v>
+        <v>168695574067.61</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -583,19 +4100,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B5" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>342414228168.06</v>
+        <v>342414926650.99</v>
       </c>
       <c r="E5">
-        <v>342414228168.06</v>
+        <v>342414926650.99</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -603,13 +4120,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B6" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="D6">
         <v>11997668461.16</v>
@@ -623,19 +4140,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B7" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>747959613216.74</v>
+        <v>750125942617.24</v>
       </c>
       <c r="E7">
-        <v>747959613216.74</v>
+        <v>750125942617.24</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -643,19 +4160,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B8" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>159481970505.44</v>
+        <v>159481007371.38</v>
       </c>
       <c r="E8">
-        <v>159481970505.44</v>
+        <v>159481007371.38</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -663,19 +4180,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B9" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>521871811938.83</v>
+        <v>521894244688.2</v>
       </c>
       <c r="E9">
-        <v>521871811938.83</v>
+        <v>521894244688.2</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -683,19 +4200,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B10" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>1288855358834.29</v>
+        <v>1288507328252.87</v>
       </c>
       <c r="E10">
-        <v>1288855358834.29</v>
+        <v>1288507328252.87</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -703,19 +4220,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B11" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>194266667459.23</v>
+        <v>194282993658.24</v>
       </c>
       <c r="E11">
-        <v>194266667459.23</v>
+        <v>194282993658.24</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -723,7 +4240,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B12" s="1">
         <v>44928.70833333333</v>
@@ -732,10 +4249,10 @@
         <v>17</v>
       </c>
       <c r="D12">
-        <v>142205533502.36</v>
+        <v>142205857911.48</v>
       </c>
       <c r="E12">
-        <v>142205533502.36</v>
+        <v>142205857911.48</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -743,19 +4260,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B13" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>568559256863.25</v>
+        <v>568634469409.38</v>
       </c>
       <c r="E13">
-        <v>568559256863.25</v>
+        <v>568634469409.38</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -763,19 +4280,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B14" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>33010759973.02</v>
+        <v>33017320093.81</v>
       </c>
       <c r="E14">
-        <v>33010759973.02</v>
+        <v>33017320093.81</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -783,19 +4300,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B15" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>352896471122.15</v>
+        <v>352934939878.7</v>
       </c>
       <c r="E15">
-        <v>352896471122.15</v>
+        <v>352934939878.7</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -803,19 +4320,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B16" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>670575633141.3</v>
+        <v>670720901617.42</v>
       </c>
       <c r="E16">
-        <v>670575633141.3</v>
+        <v>670720901617.42</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -823,39 +4340,39 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B17" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>4016341918197.02</v>
+        <v>4016490606522.9</v>
       </c>
       <c r="E17">
-        <v>4016340493197.02</v>
+        <v>4016490606522.9</v>
       </c>
       <c r="F17">
-        <v>1425000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B18" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>314776671510.51</v>
+        <v>314837498529.61</v>
       </c>
       <c r="E18">
-        <v>314776671510.51</v>
+        <v>314837498529.61</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -863,19 +4380,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B19" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>101491227560.81</v>
+        <v>101455775002.3</v>
       </c>
       <c r="E19">
-        <v>101491227560.81</v>
+        <v>101455775002.3</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -883,19 +4400,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B20" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>1152461658.33</v>
+        <v>1412647918.85</v>
       </c>
       <c r="E20">
-        <v>2015426518.62</v>
+        <v>2938992522.39</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -903,19 +4420,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B21" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>52348489.19</v>
+        <v>60560759.6</v>
       </c>
       <c r="E21">
-        <v>134826023.11</v>
+        <v>190286326.97</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -923,19 +4440,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B22" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>81784972.25</v>
+        <v>122957055.21</v>
       </c>
       <c r="E22">
-        <v>146802951.03</v>
+        <v>219927864.83</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -943,19 +4460,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B23" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>376677283.99</v>
+        <v>445520970.73</v>
       </c>
       <c r="E23">
-        <v>743053212.77</v>
+        <v>392640911.05</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -963,19 +4480,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B24" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>253032255.97</v>
+        <v>253560001.72</v>
       </c>
       <c r="E24">
-        <v>792348920.75</v>
+        <v>1524681552.35</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -983,19 +4500,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B25" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>38770841.75</v>
+        <v>58048498.86</v>
       </c>
       <c r="E25">
-        <v>48532391.19</v>
+        <v>49918229.93</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1003,19 +4520,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B26" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>144020328.8</v>
+        <v>219774200.08</v>
       </c>
       <c r="E26">
-        <v>186583057.59</v>
+        <v>211031415.03</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1023,19 +4540,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B27" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>101586391.65</v>
+        <v>151856422.47</v>
       </c>
       <c r="E27">
-        <v>114276866.55</v>
+        <v>119011171.87</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1043,13 +4560,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B28" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="D28">
         <v>2673904.08</v>
@@ -1063,19 +4580,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B29" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>53176463.32</v>
+        <v>79648723.54</v>
       </c>
       <c r="E29">
-        <v>87905562.48</v>
+        <v>124160104.96</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1083,19 +4600,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B30" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>158887469.02</v>
+        <v>243043776.15</v>
       </c>
       <c r="E30">
-        <v>199656258.85</v>
+        <v>246736041.35</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1103,7 +4620,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B31" s="1">
         <v>44928.70833333333</v>
@@ -1112,10 +4629,10 @@
         <v>17</v>
       </c>
       <c r="D31">
-        <v>39815744.57</v>
+        <v>55755931.59</v>
       </c>
       <c r="E31">
-        <v>57226753.69</v>
+        <v>57964045.26</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1123,19 +4640,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B32" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>94830087.71</v>
+        <v>142359968.14</v>
       </c>
       <c r="E32">
-        <v>126609144.94</v>
+        <v>166773551.97</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1143,19 +4660,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B33" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>9131054.97</v>
+        <v>12890090.18</v>
       </c>
       <c r="E33">
-        <v>13787193.22</v>
+        <v>20599505.01</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1163,19 +4680,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B34" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>207747272.38</v>
+        <v>224882664.92</v>
       </c>
       <c r="E34">
-        <v>281947095.9</v>
+        <v>430954409.83</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1183,19 +4700,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B35" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>1075080232.92</v>
+        <v>1202513456.11</v>
       </c>
       <c r="E35">
-        <v>1931208508.58</v>
+        <v>2128583379.74</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1203,19 +4720,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B36" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>29141894.18</v>
+        <v>42922754.76</v>
       </c>
       <c r="E36">
-        <v>53480968.44</v>
+        <v>74922901.41</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1223,19 +4740,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B37" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>78548800.83</v>
+        <v>117033617.06</v>
       </c>
       <c r="E37">
-        <v>158106553.18</v>
+        <v>216833572.28</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1243,19 +4760,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="B38" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>3721370821355.93</v>
+        <v>3715563570095.03</v>
       </c>
       <c r="E38">
-        <v>3721370821355.93</v>
+        <v>3715563570095.03</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1263,19 +4780,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="B39" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>168694391077.84</v>
+        <v>168756134827.21</v>
       </c>
       <c r="E39">
-        <v>168694391077.84</v>
+        <v>168756134827.21</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1283,19 +4800,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="B40" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D40">
-        <v>478597687299.26</v>
+        <v>480703275633.98</v>
       </c>
       <c r="E40">
-        <v>478597687299.26</v>
+        <v>480703275633.98</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1303,19 +4820,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="B41" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>1289232036118.28</v>
+        <v>1288952849223.6</v>
       </c>
       <c r="E41">
-        <v>1289232036118.28</v>
+        <v>1288952849223.6</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1323,19 +4840,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="B42" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>748212645472.71</v>
+        <v>750379502618.96</v>
       </c>
       <c r="E42">
-        <v>748212645472.71</v>
+        <v>750379502618.96</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1343,19 +4860,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="B43" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43">
-        <v>159520741347.19</v>
+        <v>159539055870.24</v>
       </c>
       <c r="E43">
-        <v>159520741347.19</v>
+        <v>159539055870.24</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1363,19 +4880,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="B44" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D44">
-        <v>522015832267.63</v>
+        <v>522114018888.28</v>
       </c>
       <c r="E44">
-        <v>522015832267.63</v>
+        <v>522114018888.28</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1383,19 +4900,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="B45" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>342515814559.71</v>
+        <v>342566783073.46</v>
       </c>
       <c r="E45">
-        <v>342515814559.71</v>
+        <v>342566783073.46</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1403,13 +4920,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="B46" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="D46">
         <v>12000342365.24</v>
@@ -1423,19 +4940,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="B47" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>194319843922.55</v>
+        <v>194362642381.78</v>
       </c>
       <c r="E47">
-        <v>194319843922.55</v>
+        <v>194362642381.78</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1443,19 +4960,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="B48" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>568718144332.27</v>
+        <v>568877513185.53</v>
       </c>
       <c r="E48">
-        <v>568718144332.27</v>
+        <v>568877513185.53</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1463,7 +4980,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="B49" s="1">
         <v>44928.70833333333</v>
@@ -1472,10 +4989,10 @@
         <v>17</v>
       </c>
       <c r="D49">
-        <v>142245349246.93</v>
+        <v>142261613843.07</v>
       </c>
       <c r="E49">
-        <v>142245349246.93</v>
+        <v>142261613843.07</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1483,19 +5000,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="B50" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>352991301209.86</v>
+        <v>353077299846.84</v>
       </c>
       <c r="E50">
-        <v>352991301209.86</v>
+        <v>353077299846.84</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1503,19 +5020,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="B51" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D51">
-        <v>33019891027.99</v>
+        <v>33030210183.99</v>
       </c>
       <c r="E51">
-        <v>33019891027.99</v>
+        <v>33030210183.99</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1523,19 +5040,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="B52" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D52">
-        <v>670783380413.68</v>
+        <v>670945784282.34</v>
       </c>
       <c r="E52">
-        <v>670783380413.68</v>
+        <v>670945784282.34</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1543,39 +5060,39 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="B53" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D53">
-        <v>4017416998429.94</v>
+        <v>4017693119979.01</v>
       </c>
       <c r="E53">
-        <v>4017415573429.94</v>
+        <v>4017693119979.01</v>
       </c>
       <c r="F53">
-        <v>1425000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="B54" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D54">
-        <v>101520369454.99</v>
+        <v>101498697757.06</v>
       </c>
       <c r="E54">
-        <v>101520369454.99</v>
+        <v>101498697757.06</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1583,19 +5100,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="B55" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D55">
-        <v>314855220311.34</v>
+        <v>314954532146.67</v>
       </c>
       <c r="E55">
-        <v>314855220311.34</v>
+        <v>314954532146.67</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1603,13 +5120,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="B56" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="D56">
         <v>413557778</v>
@@ -1623,13 +5140,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="B57" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="D57">
         <v>56296376</v>
@@ -1643,13 +5160,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="B58" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="D58">
         <v>1886807503.35</v>
@@ -1663,19 +5180,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="B59" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="D59">
-        <v>495936991542.54</v>
+        <v>428723490435.16</v>
       </c>
       <c r="E59">
-        <v>495936991542.54</v>
+        <v>428723490435.16</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1683,13 +5200,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="B60" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="D60">
         <v>2157894913.44</v>
@@ -1703,33 +5220,33 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B61" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>-2218</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>2218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B62" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1743,33 +5260,33 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B63" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>-400000000</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>400000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B64" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1783,13 +5300,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B65" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1803,13 +5320,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B66" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1823,13 +5340,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B67" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1843,13 +5360,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B68" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1863,13 +5380,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B69" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1883,13 +5400,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B70" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1903,13 +5420,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B71" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1923,13 +5440,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B72" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1943,13 +5460,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B73" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1963,7 +5480,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B74" s="1">
         <v>44928.70833333333</v>
@@ -1983,13 +5500,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B75" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2003,13 +5520,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B76" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2023,13 +5540,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B77" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2043,13 +5560,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B78" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2063,19 +5580,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="B79" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D79">
-        <v>57700000</v>
+        <v>86800000</v>
       </c>
       <c r="E79">
-        <v>57700000</v>
+        <v>86800000</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2083,19 +5600,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="B80" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D80">
-        <v>91650000</v>
+        <v>57700000</v>
       </c>
       <c r="E80">
-        <v>91650000</v>
+        <v>57700000</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2103,13 +5620,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="B81" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D81">
         <v>28350000</v>
@@ -2123,19 +5640,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="B82" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D82">
-        <v>88350000</v>
+        <v>74650000</v>
       </c>
       <c r="E82">
-        <v>88350000</v>
+        <v>74650000</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2143,19 +5660,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="B83" s="1">
         <v>44928.70833333333</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D83">
-        <v>48850000</v>
+        <v>47100000</v>
       </c>
       <c r="E83">
-        <v>48850000</v>
+        <v>47100000</v>
       </c>
       <c r="F83">
         <v>0</v>
